--- a/InputData/trans/BPP/Battery Pack Price.xlsx
+++ b/InputData/trans/BPP/Battery Pack Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\BPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48359E06-F382-4E1F-81F2-5E8970E7301D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ECB2E4-46DF-4367-A783-5F31E1460F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{DC12087C-9A27-4A43-B4A9-6B3F1E517F08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Sources:</t>
   </si>
@@ -43,15 +43,6 @@
     <t>BNEF</t>
   </si>
   <si>
-    <t>https://about.bnef.com/blog/lithium-ion-battery-pack-prices-rise-for-first-time-to-an-average-of-151-kwh/</t>
-  </si>
-  <si>
-    <t>Lithium-ion Battery Pack Prices Rise for First Time to an Average of $151/kWh</t>
-  </si>
-  <si>
-    <t>2012 to 2022 USD</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -67,20 +58,20 @@
     <t>The EPS applies endogenous learning for battery pack prices in years where the battery pack price is listed as 0.</t>
   </si>
   <si>
-    <t>2022 to 2023</t>
-  </si>
-  <si>
     <t>Lithium-ion Battery Pack Prices Hit Record Low of $139/kWh</t>
   </si>
   <si>
     <t>https://about.bnef.com/blog/lithium-ion-battery-pack-prices-hit-record-low-of-139-kwh/#:~:text=Given%20this%2C%20BNEF%20expects%20average,and%20%2480%2FkWh%20in%202030.</t>
+  </si>
+  <si>
+    <t>2023 to 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +83,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,17 +113,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -141,9 +143,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +183,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -287,7 +289,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -437,20 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF982137-6F01-4109-8226-D4C6F3731BA9}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="101.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -463,67 +466,41 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>1</v>
+      <c r="A8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>2023</v>
+      <c r="A9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1.29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>1/0.951</f>
-        <v>1.0515247108307046</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
+      <c r="B11" s="2">
+        <v>0.75350342301658668</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" location=":~:text=Given%20this%2C%20BNEF%20expects%20average,and%20%2480%2FkWh%20in%202030." xr:uid="{96C10B99-B75C-4A91-A1D1-2211BAD3764D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -536,14 +513,14 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>2021</v>
@@ -638,19 +615,19 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <f>141/About!$A$16</f>
-        <v>109.30232558139535</v>
+        <f>150*About!$B$11</f>
+        <v>113.025513452488</v>
       </c>
       <c r="C2">
-        <f>151/About!$A$16</f>
-        <v>117.05426356589147</v>
+        <f>161*About!$B$11</f>
+        <v>121.31405110567046</v>
       </c>
       <c r="D2">
-        <f>139/(About!A16*About!A17)</f>
-        <v>102.47209302325579</v>
+        <f>139*About!$B$11</f>
+        <v>104.73697579930555</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -747,14 +724,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -762,11 +739,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <f>150/About!$A$16</f>
-        <v>116.27906976744185</v>
+        <f>160*About!B11</f>
+        <v>120.56054768265386</v>
       </c>
     </row>
   </sheetData>
